--- a/doc/BugAnalysis.xlsx
+++ b/doc/BugAnalysis.xlsx
@@ -8,17 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kota_ly/work/TsuriMapMaker/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFE7393-3E84-2940-96C5-413B1809FF38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3ECCEB9-B3B1-474A-973B-DCE16EEAFE8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" xr2:uid="{27B42923-5829-3A4E-9BBD-706A12463A06}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23100" windowHeight="16020" xr2:uid="{27B42923-5829-3A4E-9BBD-706A12463A06}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="BUG_01" sheetId="4" r:id="rId2"/>
-    <sheet name="備考&gt;" sheetId="3" r:id="rId3"/>
-    <sheet name="リスク定義" sheetId="2" r:id="rId4"/>
+    <sheet name="BUG_02" sheetId="5" r:id="rId3"/>
+    <sheet name="備考&gt;" sheetId="3" r:id="rId4"/>
+    <sheet name="リスク定義" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">BUG_02!$B$16:$F$16</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +31,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -36,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="96">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2"/>
@@ -1448,6 +1455,158 @@
     <t>対応日</t>
     <rPh sb="0" eb="3">
       <t xml:space="preserve">タイオウビ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BUG_002</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Dimensions.get('window')で得た height のサイズがへん</t>
+    <rPh sb="25" eb="26">
+      <t xml:space="preserve">エタ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BUG_02</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Dimensions.get('window')でheight, width を取得。</t>
+    <rPh sb="40" eb="42">
+      <t xml:space="preserve">シュトク </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>■不具合内容</t>
+    <rPh sb="1" eb="6">
+      <t xml:space="preserve">フグアイナイヨウ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　Dimsnsions.get('window')で得た heightを使うと、画面全体をはみ出る。</t>
+    <rPh sb="26" eb="27">
+      <t xml:space="preserve">エタ </t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t xml:space="preserve">ツカウト </t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t xml:space="preserve">ガメｎ </t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t xml:space="preserve">ゼンタイヲ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dimensions.get('window')　のheight はステータスバーの高さを含むのに対して、</t>
+    <rPh sb="43" eb="44">
+      <t xml:space="preserve">タカサヲ </t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t xml:space="preserve">フクム </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>描画領域のorigin (座標 [0,0])はステータスバーの下だった。</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">ビョウガリョウイキ </t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">ザヒョウ </t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t xml:space="preserve">シタ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>■原因</t>
+    <rPh sb="1" eb="3">
+      <t xml:space="preserve">ゲンイｎ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>■対策</t>
+    <rPh sb="1" eb="3">
+      <t xml:space="preserve">タイサク </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">　height からステータスバーの高さを引く。 </t>
+    <rPh sb="18" eb="19">
+      <t xml:space="preserve">タカサ </t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t xml:space="preserve">ヒク </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>■参考サイト</t>
+    <rPh sb="1" eb="3">
+      <t xml:space="preserve">サンコウサイト </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://qiita.com/mogamin3/items/1aad5fd2d03fb54e0dbf</t>
+  </si>
+  <si>
+    <t>height/4の高さ設定をした&lt;View /&gt;を４個 垂直に配置。</t>
+    <rPh sb="9" eb="10">
+      <t xml:space="preserve">タカサ </t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">セッテイ </t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t xml:space="preserve">コ </t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">スイチョクニ </t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t xml:space="preserve">ハイチ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>最後の１個が画面からはみ出る</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>不具合発生</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">フグアイ </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">ハッセイ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>完了</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カンリョウ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dimensions.get('window')　のheight はステータスバーの高さを含むのに対して、描画領域のorigin (座標 [0,0])はステータスバーの下だった。そのためステータスバー分画面がはみ出てしまった。</t>
+    <rPh sb="101" eb="102">
+      <t xml:space="preserve">ブン </t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t xml:space="preserve">ガメｎ </t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1638,7 +1797,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1646,12 +1805,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1669,9 +1822,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1679,9 +1829,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1741,11 +1888,46 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1756,6 +1938,2001 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1838570</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8CFDA64-88A5-EBC4-D764-F2D31D4E3A9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="431800" y="8458200"/>
+          <a:ext cx="4480170" cy="8813800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>63501</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C81DC31-C6B9-73A4-CB2C-5407EDDB06D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1752600" y="9385300"/>
+          <a:ext cx="0" cy="1701800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>228599</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDBCD8C6-8D4C-EBDD-BB50-B9C64F761B33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1752600" y="11074400"/>
+          <a:ext cx="0" cy="1701800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F6768CA-53C0-711D-202E-78826B1AC93D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1752600" y="12827000"/>
+          <a:ext cx="0" cy="1701800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99DE15B8-17F8-14B4-83EC-A2DCA7D8CA00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1752600" y="14528800"/>
+          <a:ext cx="0" cy="1701800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2044700</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2044700</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>63501</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A69879D-CCE3-CF4A-9048-53A1C66CF6CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5118100" y="9385300"/>
+          <a:ext cx="0" cy="1701800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2044700</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2044700</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC9DD4C8-02A1-D124-2FCC-535173A75E87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5118100" y="11137900"/>
+          <a:ext cx="0" cy="1701800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2044700</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2044700</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB2305D0-2AB5-E4F2-4460-928D58E3DCF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5118100" y="12928600"/>
+          <a:ext cx="0" cy="1701800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2044700</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2044700</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC0431D4-8819-B785-9F43-540A1A0C907C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5118100" y="14706600"/>
+          <a:ext cx="0" cy="1701800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1847774</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>124043</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2942165</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>93748</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D41BA7DA-06A0-3135-06A6-E7CC77A72F23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7689774" y="8624576"/>
+          <a:ext cx="4531858" cy="8605705"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2612833</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>29022</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2612833</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>212944</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6656E8F-AD32-91A4-ECC5-2583748F1E11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8454833" y="9545555"/>
+          <a:ext cx="0" cy="1707922"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2612833</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>212636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2612833</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>136436</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線矢印コネクタ 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AF9BD0F-591C-6228-FDD2-3820277E7A51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8454833" y="11253169"/>
+          <a:ext cx="0" cy="1701800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2612833</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>197335</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2612833</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>121135</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線矢印コネクタ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0796CE2-1412-747C-8EE1-2F8B5867133C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8454833" y="13015868"/>
+          <a:ext cx="0" cy="1701800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2612833</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>136130</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2612833</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>59931</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線矢印コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AFB5BF1-E812-B3CF-11EB-B4388D8D37EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8454833" y="14732663"/>
+          <a:ext cx="0" cy="1701801"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1129535</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>29022</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1129535</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>212944</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線矢印コネクタ 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8850CB4-ABC2-60F0-1327-2BB1C116E8AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10409002" y="9545555"/>
+          <a:ext cx="0" cy="1707922"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1129535</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>212636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1129535</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>136436</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直線矢印コネクタ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7832BB5-E2AB-4A6B-749C-F96F440F6398}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10409002" y="11253169"/>
+          <a:ext cx="0" cy="1701800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1129535</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>197335</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1129535</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>121135</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4388527A-B536-634C-E673-C2FC3820CF56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10409002" y="13015868"/>
+          <a:ext cx="0" cy="1701800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1129535</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>136130</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1129535</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>59931</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線矢印コネクタ 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65859047-1F28-8782-F0DC-A60D03208C06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10409002" y="14732663"/>
+          <a:ext cx="0" cy="1701801"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>809435</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>169947</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1482281</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>62840</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="円/楕円 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10C6EDB6-2FBE-5AB2-111C-D9EC258C19E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10088902" y="16036480"/>
+          <a:ext cx="672846" cy="654893"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2292734</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>169947</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2974046</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>62840</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="円/楕円 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA6BEEEA-3EDA-4685-2BA0-6C7F5ACDDCBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8134734" y="16036480"/>
+          <a:ext cx="681312" cy="654893"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1681604</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>127613</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2354858</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>20506</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="円/楕円 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0479C478-4E7A-4139-23D3-B6196504F5D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4755004" y="15977213"/>
+          <a:ext cx="673254" cy="654893"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>948266</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>228599</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1876411" cy="342786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="テキスト ボックス 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23CDC189-65D1-F3DC-FE26-B320C724DC83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="948266" y="8966199"/>
+          <a:ext cx="1876411" cy="342786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
+            <a:t> flex boxes in flex:1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>431799</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>228599</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2270301" cy="342786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="テキスト ボックス 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{247585D3-DD63-35B0-8DF0-61FDC4150B0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3022599" y="8966199"/>
+          <a:ext cx="2270301" cy="342786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
+            <a:t> "height" boxes in flex:1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2878666</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>84665</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2546018" cy="342786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="テキスト ボックス 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B4E6975-8E95-3B8B-3C4D-08E218E2D474}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8720666" y="8839198"/>
+          <a:ext cx="2546018" cy="342786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
+            <a:t> "height" boxes in height: 1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3073400</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>169334</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2700547" cy="3598677"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="テキスト ボックス 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80B2C6FE-E3CB-EA1E-EA5F-359E93DB1782}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12352867" y="10701867"/>
+          <a:ext cx="2700547" cy="3598677"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>flex:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
+            <a:t> 1 {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
+            <a:t>    flex: 1{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
+            <a:t>        height: height*(1/4) { ... }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
+            <a:t>        height: height*(1/4) { ... }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
+            <a:t>        height: height*(1/4) { ... }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
+            <a:t>        height: height*(1/4) { ... }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
+            <a:t>    }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
+            <a:t>    flex: 1 {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
+            <a:t>        height: height*(1/4) { ... }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
+            <a:t>        height: height*(1/4) { ... }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
+            <a:t>        height: height*(1/4) { ... }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
+            <a:t>        height: height*(1/4) { ... }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
+            <a:t>    }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2294466</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>186267</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2700547" cy="3598677"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCA2FC98-F51A-1E6E-C1C7-E7AA06BEAAAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5367866" y="10701867"/>
+          <a:ext cx="2700547" cy="3598677"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>flex:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
+            <a:t> 1 {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
+            <a:t>    flex: 1{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
+            <a:t>        flex: 1 { ... }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
+            <a:t>        flex: 1 { ... }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
+            <a:t>        flex: 1 { ... }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
+            <a:t>        flex: 1 { ... }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
+            <a:t>    }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
+            <a:t>    flex: 1 {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
+            <a:t>        height: height*(1/4) { ... }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
+            <a:t>        height: height*(1/4) { ... }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
+            <a:t>        height: height*(1/4) { ... }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
+            <a:t>        height: height*(1/4) { ... }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
+            <a:t>    }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2150533</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>169334</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2370667</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>135468</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="円/楕円 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58CEC71B-340D-ACA4-B521-B7D15B26F223}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7992533" y="9431867"/>
+          <a:ext cx="220134" cy="220134"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>338666</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>135467</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1862666</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>186267</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="角丸四角形吹き出し 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{772F0FC2-DFF0-0D49-8768-4841DB16995F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6180666" y="9144000"/>
+          <a:ext cx="1524000" cy="812800"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 68056"/>
+            <a:gd name="adj2" fmla="val 6250"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+            <a:t>原点</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>423333</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1981199</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>101601</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="角丸四角形吹き出し 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{301412BB-BF32-D3EB-04F6-4D3C5FF8E045}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6265333" y="15663333"/>
+          <a:ext cx="1557866" cy="1066801"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 71317"/>
+            <a:gd name="adj2" fmla="val 23710"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>StatusBar</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>の高さはみ出てる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2057,118 +4234,134 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{469122BF-CF01-FE45-A9EC-CC8F17D2D825}">
   <dimension ref="B2:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
     <col min="3" max="3" width="49.7109375" customWidth="1"/>
-    <col min="4" max="6" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="2" customWidth="1"/>
+    <col min="5" max="6" width="12.5703125" customWidth="1"/>
     <col min="7" max="7" width="24.42578125" customWidth="1"/>
     <col min="8" max="8" width="63.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" s="2" customFormat="1" ht="86" customHeight="1">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="12" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="105">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="30">
         <v>4</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="27">
         <v>44770</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="27">
         <v>44773</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
+    <row r="4" spans="2:8" ht="63">
+      <c r="B4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="30">
+        <v>3</v>
+      </c>
+      <c r="E4" s="31">
+        <v>44774</v>
+      </c>
+      <c r="F4" s="27">
+        <v>44779</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -2181,7 +4374,7 @@
   <dimension ref="B2:X36"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2195,165 +4388,165 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="21">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="17" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="21">
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="12" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="21">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="10">
         <v>1</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="21">
-      <c r="B7" s="14"/>
-      <c r="C7" s="6">
+      <c r="B7" s="34"/>
+      <c r="C7" s="4">
         <v>2</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="21">
-      <c r="B8" s="14"/>
-      <c r="C8" s="6">
+      <c r="B8" s="34"/>
+      <c r="C8" s="4">
         <v>3</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="21">
-      <c r="B9" s="14"/>
-      <c r="C9" s="6">
+      <c r="B9" s="34"/>
+      <c r="C9" s="4">
         <v>4</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="21">
-      <c r="B10" s="14"/>
-      <c r="C10" s="13">
+      <c r="B10" s="34"/>
+      <c r="C10" s="10">
         <v>5</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="8"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="2:7" ht="42">
-      <c r="B11" s="14"/>
-      <c r="C11" s="6">
+      <c r="B11" s="34"/>
+      <c r="C11" s="4">
         <v>6</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="6" t="s">
         <v>35</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="20"/>
+      <c r="G11" s="16"/>
     </row>
     <row r="12" spans="2:7" ht="21">
-      <c r="B12" s="14"/>
-      <c r="C12" s="13">
+      <c r="B12" s="34"/>
+      <c r="C12" s="10">
         <v>7</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="8"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="2:7" ht="21">
-      <c r="B13" s="14"/>
-      <c r="C13" s="15">
+      <c r="B13" s="34"/>
+      <c r="C13" s="11">
         <v>8</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="8"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="2:7" ht="21">
-      <c r="B14" s="14"/>
-      <c r="C14" s="6">
+      <c r="B14" s="34"/>
+      <c r="C14" s="4">
         <v>9</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="8"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="2:7" ht="21">
-      <c r="B15" s="14"/>
-      <c r="C15" s="13">
+      <c r="B15" s="34"/>
+      <c r="C15" s="10">
         <v>10</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="8"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="2:7" ht="21">
-      <c r="B16" s="14"/>
-      <c r="C16" s="6">
+      <c r="B16" s="34"/>
+      <c r="C16" s="4">
         <v>11</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="8"/>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" spans="2:24" ht="21">
-      <c r="B17" s="14"/>
-      <c r="C17" s="6">
+      <c r="B17" s="34"/>
+      <c r="C17" s="4">
         <v>12</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="15" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2366,348 +4559,348 @@
       </c>
     </row>
     <row r="19" spans="2:24">
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="17" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="20" spans="2:24" ht="21">
-      <c r="C20" s="6"/>
-      <c r="D20" s="12" t="s">
+      <c r="C20" s="4"/>
+      <c r="D20" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H20" s="28" t="s">
+      <c r="H20" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="Q20" s="22" t="s">
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="Q20" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
     </row>
     <row r="21" spans="2:24" ht="21">
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="H21" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="Q21" s="23" t="s">
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="Q21" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="24"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="24"/>
-      <c r="X21" s="24"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="20"/>
+      <c r="X21" s="20"/>
     </row>
     <row r="22" spans="2:24" ht="21">
-      <c r="C22" s="3"/>
-      <c r="D22" s="6" t="s">
+      <c r="C22" s="35"/>
+      <c r="D22" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H22" s="26" t="s">
+      <c r="H22" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="24"/>
-      <c r="W22" s="24"/>
-      <c r="X22" s="24"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="20"/>
     </row>
     <row r="23" spans="2:24">
-      <c r="H23" s="26" t="s">
+      <c r="H23" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="Q23" s="29" t="s">
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="Q23" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="24"/>
-      <c r="U23" s="24"/>
-      <c r="V23" s="24"/>
-      <c r="W23" s="24"/>
-      <c r="X23" s="24"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="20"/>
     </row>
     <row r="24" spans="2:24">
-      <c r="H24" s="26" t="s">
+      <c r="H24" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="Q24" s="25" t="s">
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="Q24" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="R24" s="24"/>
-      <c r="S24" s="24"/>
-      <c r="T24" s="24"/>
-      <c r="U24" s="24"/>
-      <c r="V24" s="24"/>
-      <c r="W24" s="24"/>
-      <c r="X24" s="24"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="20"/>
     </row>
     <row r="25" spans="2:24">
-      <c r="H25" s="26" t="s">
+      <c r="H25" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="Q25" s="25" t="s">
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="Q25" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="24"/>
-      <c r="U25" s="24"/>
-      <c r="V25" s="24"/>
-      <c r="W25" s="24"/>
-      <c r="X25" s="24"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
+      <c r="X25" s="20"/>
     </row>
     <row r="26" spans="2:24">
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="Q26" s="25" t="s">
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="Q26" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="R26" s="24"/>
-      <c r="S26" s="24"/>
-      <c r="T26" s="24"/>
-      <c r="U26" s="24"/>
-      <c r="V26" s="24"/>
-      <c r="W26" s="24"/>
-      <c r="X26" s="24"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="20"/>
+      <c r="W26" s="20"/>
+      <c r="X26" s="20"/>
     </row>
     <row r="27" spans="2:24">
-      <c r="H27" s="26" t="s">
+      <c r="H27" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="Q27" s="25" t="s">
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="Q27" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="R27" s="24"/>
-      <c r="S27" s="24"/>
-      <c r="T27" s="24"/>
-      <c r="U27" s="24"/>
-      <c r="V27" s="24"/>
-      <c r="W27" s="24"/>
-      <c r="X27" s="24"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="20"/>
+      <c r="X27" s="20"/>
     </row>
     <row r="28" spans="2:24">
-      <c r="H28" s="27" t="s">
+      <c r="H28" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="24"/>
-      <c r="S28" s="24"/>
-      <c r="T28" s="24"/>
-      <c r="U28" s="24"/>
-      <c r="V28" s="24"/>
-      <c r="W28" s="24"/>
-      <c r="X28" s="24"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="20"/>
+      <c r="W28" s="20"/>
+      <c r="X28" s="20"/>
     </row>
     <row r="29" spans="2:24">
-      <c r="Q29" s="30" t="s">
+      <c r="Q29" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="R29" s="24"/>
-      <c r="S29" s="24"/>
-      <c r="T29" s="24"/>
-      <c r="U29" s="24"/>
-      <c r="V29" s="24"/>
-      <c r="W29" s="24"/>
-      <c r="X29" s="24"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="20"/>
+      <c r="U29" s="20"/>
+      <c r="V29" s="20"/>
+      <c r="W29" s="20"/>
+      <c r="X29" s="20"/>
     </row>
     <row r="30" spans="2:24">
-      <c r="Q30" s="23" t="s">
+      <c r="Q30" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="R30" s="24"/>
-      <c r="S30" s="24"/>
-      <c r="T30" s="24"/>
-      <c r="U30" s="24"/>
-      <c r="V30" s="24"/>
-      <c r="W30" s="24"/>
-      <c r="X30" s="24"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="20"/>
+      <c r="T30" s="20"/>
+      <c r="U30" s="20"/>
+      <c r="V30" s="20"/>
+      <c r="W30" s="20"/>
+      <c r="X30" s="20"/>
     </row>
     <row r="31" spans="2:24">
-      <c r="H31" s="28" t="s">
+      <c r="H31" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="Q31" s="27" t="s">
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="Q31" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="R31" s="24"/>
-      <c r="S31" s="24"/>
-      <c r="T31" s="24"/>
-      <c r="U31" s="24"/>
-      <c r="V31" s="24"/>
-      <c r="W31" s="24"/>
-      <c r="X31" s="24"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="20"/>
+      <c r="T31" s="20"/>
+      <c r="U31" s="20"/>
+      <c r="V31" s="20"/>
+      <c r="W31" s="20"/>
+      <c r="X31" s="20"/>
     </row>
     <row r="32" spans="2:24">
-      <c r="H32" s="23" t="s">
+      <c r="H32" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="Q32" s="25" t="s">
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="Q32" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="R32" s="24"/>
-      <c r="S32" s="24"/>
-      <c r="T32" s="24"/>
-      <c r="U32" s="24"/>
-      <c r="V32" s="24"/>
-      <c r="W32" s="24"/>
-      <c r="X32" s="24"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="20"/>
+      <c r="V32" s="20"/>
+      <c r="W32" s="20"/>
+      <c r="X32" s="20"/>
     </row>
     <row r="33" spans="8:24">
-      <c r="H33" s="26" t="s">
+      <c r="H33" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="Q33" s="27" t="s">
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="Q33" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="R33" s="24"/>
-      <c r="S33" s="24"/>
-      <c r="T33" s="24"/>
-      <c r="U33" s="24"/>
-      <c r="V33" s="24"/>
-      <c r="W33" s="24"/>
-      <c r="X33" s="24"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="20"/>
+      <c r="U33" s="20"/>
+      <c r="V33" s="20"/>
+      <c r="W33" s="20"/>
+      <c r="X33" s="20"/>
     </row>
     <row r="34" spans="8:24">
-      <c r="H34" s="27" t="s">
+      <c r="H34" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="Q34" s="26" t="s">
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="Q34" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="R34" s="24"/>
-      <c r="S34" s="24"/>
-      <c r="T34" s="24"/>
-      <c r="U34" s="24"/>
-      <c r="V34" s="24"/>
-      <c r="W34" s="24"/>
-      <c r="X34" s="24"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="20"/>
+      <c r="U34" s="20"/>
+      <c r="V34" s="20"/>
+      <c r="W34" s="20"/>
+      <c r="X34" s="20"/>
     </row>
     <row r="35" spans="8:24">
-      <c r="Q35" s="27" t="s">
+      <c r="Q35" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="R35" s="24"/>
-      <c r="S35" s="24"/>
-      <c r="T35" s="24"/>
-      <c r="U35" s="24"/>
-      <c r="V35" s="24"/>
-      <c r="W35" s="24"/>
-      <c r="X35" s="24"/>
+      <c r="R35" s="20"/>
+      <c r="S35" s="20"/>
+      <c r="T35" s="20"/>
+      <c r="U35" s="20"/>
+      <c r="V35" s="20"/>
+      <c r="W35" s="20"/>
+      <c r="X35" s="20"/>
     </row>
     <row r="36" spans="8:24">
-      <c r="Q36" s="27" t="s">
+      <c r="Q36" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="R36" s="24"/>
-      <c r="S36" s="24"/>
-      <c r="T36" s="24"/>
-      <c r="U36" s="24"/>
-      <c r="V36" s="24"/>
-      <c r="W36" s="24"/>
-      <c r="X36" s="24"/>
+      <c r="R36" s="20"/>
+      <c r="S36" s="20"/>
+      <c r="T36" s="20"/>
+      <c r="U36" s="20"/>
+      <c r="V36" s="20"/>
+      <c r="W36" s="20"/>
+      <c r="X36" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2721,6 +4914,220 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{018CC55C-5B16-3046-97F0-54138FA14A37}">
+  <dimension ref="B2:F35"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="75" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="2" max="2" width="18.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="38.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="37.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="21">
+      <c r="B2" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="17"/>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="17"/>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="17"/>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="21">
+      <c r="C18" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="42">
+      <c r="B19" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="10">
+        <v>1</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="2:6" ht="42">
+      <c r="B20" s="34"/>
+      <c r="C20" s="32">
+        <v>2</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="2:6" ht="21">
+      <c r="B21" s="34"/>
+      <c r="C21" s="32">
+        <v>3</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="34"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="34"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="34"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="34"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="34"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="34"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="34"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="34"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="34"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="15"/>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="17"/>
+    </row>
+    <row r="33" spans="3:5">
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+    </row>
+    <row r="34" spans="3:5">
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+    </row>
+    <row r="35" spans="3:5">
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B19:B30"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ABB3148-FDC1-2048-B0AA-04C2EFF96C62}">
   <sheetPr>
     <tabColor theme="0" tint="-0.34998626667073579"/>
@@ -2738,12 +5145,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E5D768-4905-0B48-B6DB-27DD16A62F94}">
   <dimension ref="B2:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2755,132 +5162,132 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" s="2" customFormat="1">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="2:5" s="2" customFormat="1" ht="42">
-      <c r="B3" s="10"/>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="37"/>
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="21">
-      <c r="B4" s="6">
+      <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="6">
+      <c r="B5" s="4">
         <v>2</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="6">
+      <c r="B6" s="4">
         <v>3</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="6">
+      <c r="B7" s="4">
         <v>4</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="3">
+      <c r="B8" s="35">
         <v>5</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="3"/>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="35"/>
+      <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="3"/>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="35"/>
+      <c r="C10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="3"/>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="35"/>
+      <c r="C11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2891,6 +5298,11 @@
     <mergeCell ref="B2:B3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="C4:E11">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="あり">
+      <formula>NOT(ISERROR(SEARCH("あり",C4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/doc/BugAnalysis.xlsx
+++ b/doc/BugAnalysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kota_ly/work/TsuriMapMaker/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3ECCEB9-B3B1-474A-973B-DCE16EEAFE8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF17DDB7-E7E0-E546-8473-B4F55095B193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23100" windowHeight="16020" xr2:uid="{27B42923-5829-3A4E-9BBD-706A12463A06}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="16020" activeTab="2" xr2:uid="{27B42923-5829-3A4E-9BBD-706A12463A06}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">BUG_02!$B$16:$F$16</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3932,6 +3931,929 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>220133</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>40158</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>67733</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>67735</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="図 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6869A55-12D8-6988-0482-91F18FC364F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect r="424"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19473333" y="8286691"/>
+          <a:ext cx="5537200" cy="10441577"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>33866</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="直線コネクタ 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6633061-6710-034B-0FAC-ED5B463C0219}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="17763067" y="9093200"/>
+          <a:ext cx="2472266" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="34925">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>804334</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>118533</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>33866</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>118533</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直線コネクタ 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F97FB1F6-470B-54AE-C45F-DD8881EE0EF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="19134667" y="9368366"/>
+          <a:ext cx="1134532" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="34925">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>186266</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>33866</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>186266</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="直線コネクタ 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7479642B-D075-A7D2-8768-96444B17F533}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="17763067" y="17830799"/>
+          <a:ext cx="2472266" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="34925">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>118533</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>33866</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>118533</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="直線コネクタ 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{870B4B9D-0C91-1E3F-2A6E-012E03C98812}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="18584333" y="17242366"/>
+          <a:ext cx="1684866" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="34925">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>444501</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>148167</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>444501</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直線矢印コネクタ 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CE92E5B-ED37-73F1-598E-96565AE7C333}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19727334" y="9398000"/>
+          <a:ext cx="0" cy="7789333"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="34925">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle" w="lg" len="lg"/>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>529168</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>105834</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>529168</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直線矢印コネクタ 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9222952D-222A-6900-015B-0E941B1A85B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18859501" y="9101667"/>
+          <a:ext cx="0" cy="8085666"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="34925">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle" w="lg" len="lg"/>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>911452</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>252465</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="530658" cy="2355838"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="テキスト ボックス 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D69412F-6033-653E-99D4-F5FB7FECD00C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="17376695" y="12700888"/>
+          <a:ext cx="2355838" cy="530658"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>window.height</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>677335</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>105834</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>677335</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直線矢印コネクタ 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27E8D2AB-B842-71C8-8D56-4FD57C86D2EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18055168" y="9101667"/>
+          <a:ext cx="0" cy="8657166"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="34925">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle" w="lg" len="lg"/>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>107121</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>93234</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="530658" cy="2166299"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="テキスト ボックス 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5B0122D-119D-36F9-58A8-08261D699C37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="16667133" y="12700888"/>
+          <a:ext cx="2166299" cy="530658"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>screen.height</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>444501</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>105834</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>444501</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="直線矢印コネクタ 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31453395-4C41-B051-950B-4EBB9D88E2AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="19727334" y="8339667"/>
+          <a:ext cx="0" cy="698499"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="34925">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle" w="lg" len="lg"/>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>849798</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>79147</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3715441" cy="530658"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="テキスト ボックス 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6384D468-AC24-5448-2033-EC89DF132940}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18227631" y="7804980"/>
+          <a:ext cx="3715441" cy="530658"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>StatusBar.currentHeight</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>846667</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>169334</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>232835</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="円/楕円 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAA72CB7-E729-E952-7C22-533C3DA9AFD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18224500" y="15515167"/>
+          <a:ext cx="550333" cy="571501"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>１</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>21166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>740833</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="円/楕円 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61AC7C23-6FF1-D025-47EC-2F2E2FDBECFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17568333" y="7746999"/>
+          <a:ext cx="550333" cy="571501"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>681449</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>214498</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="778996" cy="1415772"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="テキスト ボックス 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2F8E525-ADC9-1E4F-3CAB-C185340817EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="18693394" y="12576719"/>
+          <a:ext cx="1415772" cy="778996"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ー②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4234,7 +5156,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{469122BF-CF01-FE45-A9EC-CC8F17D2D825}">
   <dimension ref="B2:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+    <sheetView zoomScale="87" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -4917,8 +5839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{018CC55C-5B16-3046-97F0-54138FA14A37}">
   <dimension ref="B2:F35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="75" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="50" workbookViewId="0">
+      <selection activeCell="V44" sqref="V44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
